--- a/public/attachment/sys/templates/template_task.xlsx
+++ b/public/attachment/sys/templates/template_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\workspace\jz\master\jianzhi\public\attachment\sys\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA462255-4E07-4067-BFE0-507EA4DFC6D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A4618-50C3-4E59-8D7D-EFB50BC467FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1955,9 +1955,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2111,7 +2112,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2177,17 +2178,17 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -2200,6 +2201,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2531,7 +2535,7 @@
   <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2552,10 +2556,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -2564,10 +2568,10 @@
       <c r="D1" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="28" t="s">
@@ -2579,48 +2583,48 @@
       <c r="I1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="23" t="s">
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="23" t="s">
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="23" t="s">
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="23" t="s">
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
       <c r="AH1" s="27"/>
       <c r="AI1" s="27"/>
       <c r="AJ1" s="27"/>
@@ -2628,19 +2632,19 @@
       <c r="AL1" s="27"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="30"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="15" t="s">
         <v>4</v>
       </c>
@@ -2728,7 +2732,7 @@
       <c r="H3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="31">
         <v>111</v>
       </c>
       <c r="J3" s="1">
@@ -4266,11 +4270,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="Z1:AC1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="A1:A2"/>
@@ -4286,6 +4285,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="9">

--- a/public/attachment/sys/templates/template_task.xlsx
+++ b/public/attachment/sys/templates/template_task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\workspace\jz\master\jianzhi\public\attachment\sys\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90A4618-50C3-4E59-8D7D-EFB50BC467FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC03EF-7B4E-4DD5-BC90-F5BAD77D2B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="586">
   <si>
     <t>任务名称</t>
   </si>
@@ -1949,6 +1949,14 @@
   </si>
   <si>
     <t>12-平面设计</t>
+  </si>
+  <si>
+    <t>任务图片二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务图片三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2112,7 +2120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,17 +2186,23 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -2201,9 +2215,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2271,6 +2282,84 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="374650" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="刘亦菲.jpg.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAABED28-AC21-4866-990C-2F65631D2C1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="444500"/>
+          <a:ext cx="374650" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="374650" cy="444500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="刘亦菲.jpg.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A895243-C2BB-4A22-B4F4-45A2EFE70AF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10934700" y="444500"/>
+          <a:ext cx="374650" cy="444500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2532,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2547,167 +2636,178 @@
     <col min="7" max="7" width="15" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12.77734375" style="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="32.44140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="33" width="11" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="19.44140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.88671875" style="23" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="32.44140625" style="23" customWidth="1" collapsed="1"/>
+    <col min="16" max="35" width="11" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="14" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="30" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="30" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>434</v>
       </c>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
       <c r="U1" s="26"/>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
       <c r="Y1" s="26"/>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
       <c r="AC1" s="26"/>
-      <c r="AD1" s="25" t="s">
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
       <c r="AG1" s="26"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="15" t="s">
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="S2" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="U2" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="W2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="Y2" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="Z2" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="AA2" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AC2" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AD2" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AF2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AI2" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AH2" s="27"/>
-    </row>
-    <row r="3" spans="1:38" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="29"/>
+    </row>
+    <row r="3" spans="1:40" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>560</v>
       </c>
@@ -2732,7 +2832,7 @@
       <c r="H3" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="24">
         <v>111</v>
       </c>
       <c r="J3" s="1">
@@ -2742,63 +2842,65 @@
         <v>563</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="19" t="s">
         <v>564</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>523</v>
       </c>
       <c r="Q3" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="T3" s="16" t="s">
         <v>11</v>
-      </c>
-      <c r="S3" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>546</v>
       </c>
       <c r="U3" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="V3" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="X3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="Y3" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="X3" s="14" t="s">
+      <c r="Z3" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="Y3" s="14" t="s">
+      <c r="AA3" s="14" t="s">
         <v>533</v>
       </c>
-      <c r="Z3" s="16" t="s">
+      <c r="AB3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="14" t="s">
+      <c r="AC3" s="14" t="s">
         <v>521</v>
       </c>
-      <c r="AB3" s="14" t="s">
+      <c r="AD3" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="AC3" s="14" t="s">
+      <c r="AE3" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
+      <c r="AF3" s="16"/>
       <c r="AG3" s="14"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="2"/>
@@ -2812,28 +2914,30 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="16"/>
       <c r="Q4" s="14"/>
-      <c r="R4" s="16"/>
+      <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="T4" s="16"/>
       <c r="U4" s="14"/>
-      <c r="V4" s="16"/>
+      <c r="V4" s="14"/>
       <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="14"/>
       <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="AB4" s="16"/>
       <c r="AC4" s="14"/>
-      <c r="AD4" s="16"/>
+      <c r="AD4" s="14"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
+      <c r="AF4" s="16"/>
       <c r="AG4" s="14"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="2"/>
@@ -2847,28 +2951,30 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="16"/>
       <c r="Q5" s="14"/>
-      <c r="R5" s="16"/>
+      <c r="R5" s="14"/>
       <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="T5" s="16"/>
       <c r="U5" s="14"/>
-      <c r="V5" s="16"/>
+      <c r="V5" s="14"/>
       <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
+      <c r="X5" s="16"/>
       <c r="Y5" s="14"/>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="14"/>
       <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
+      <c r="AB5" s="16"/>
       <c r="AC5" s="14"/>
-      <c r="AD5" s="16"/>
+      <c r="AD5" s="14"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
+      <c r="AF5" s="16"/>
       <c r="AG5" s="14"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="2"/>
@@ -2882,28 +2988,30 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="16"/>
       <c r="Q6" s="14"/>
-      <c r="R6" s="16"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="14"/>
-      <c r="V6" s="16"/>
+      <c r="V6" s="14"/>
       <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
+      <c r="X6" s="16"/>
       <c r="Y6" s="14"/>
-      <c r="Z6" s="16"/>
+      <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="AB6" s="16"/>
       <c r="AC6" s="14"/>
-      <c r="AD6" s="16"/>
+      <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
+      <c r="AF6" s="16"/>
       <c r="AG6" s="14"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="2"/>
@@ -2917,28 +3025,30 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="16"/>
       <c r="Q7" s="14"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="14"/>
-      <c r="V7" s="16"/>
+      <c r="V7" s="14"/>
       <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
+      <c r="X7" s="16"/>
       <c r="Y7" s="14"/>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
+      <c r="AB7" s="16"/>
       <c r="AC7" s="14"/>
-      <c r="AD7" s="16"/>
+      <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
+      <c r="AF7" s="16"/>
       <c r="AG7" s="14"/>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="2"/>
@@ -2952,28 +3062,30 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="16"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="16"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="14"/>
-      <c r="V8" s="16"/>
+      <c r="V8" s="14"/>
       <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="14"/>
-      <c r="Z8" s="16"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
+      <c r="AB8" s="16"/>
       <c r="AC8" s="14"/>
-      <c r="AD8" s="16"/>
+      <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
+      <c r="AF8" s="16"/>
       <c r="AG8" s="14"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -2987,28 +3099,30 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="16"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="16"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="T9" s="16"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="16"/>
+      <c r="V9" s="14"/>
       <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="14"/>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
+      <c r="AB9" s="16"/>
       <c r="AC9" s="14"/>
-      <c r="AD9" s="16"/>
+      <c r="AD9" s="14"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
+      <c r="AF9" s="16"/>
       <c r="AG9" s="14"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3022,28 +3136,30 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="16"/>
       <c r="Q10" s="14"/>
-      <c r="R10" s="16"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="T10" s="16"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="16"/>
+      <c r="V10" s="14"/>
       <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="14"/>
-      <c r="Z10" s="16"/>
+      <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
+      <c r="AB10" s="16"/>
       <c r="AC10" s="14"/>
-      <c r="AD10" s="16"/>
+      <c r="AD10" s="14"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
+      <c r="AF10" s="16"/>
       <c r="AG10" s="14"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -3057,28 +3173,30 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="16"/>
       <c r="Q11" s="14"/>
-      <c r="R11" s="16"/>
+      <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="16"/>
+      <c r="V11" s="14"/>
       <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="14"/>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
+      <c r="AB11" s="16"/>
       <c r="AC11" s="14"/>
-      <c r="AD11" s="16"/>
+      <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
+      <c r="AF11" s="16"/>
       <c r="AG11" s="14"/>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3092,28 +3210,30 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="16"/>
       <c r="Q12" s="14"/>
-      <c r="R12" s="16"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="16"/>
+      <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="14"/>
-      <c r="Z12" s="16"/>
+      <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
+      <c r="AB12" s="16"/>
       <c r="AC12" s="14"/>
-      <c r="AD12" s="16"/>
+      <c r="AD12" s="14"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="AF12" s="16"/>
       <c r="AG12" s="14"/>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3127,28 +3247,30 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="16"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="16"/>
+      <c r="R13" s="14"/>
       <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="16"/>
+      <c r="V13" s="14"/>
       <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
+      <c r="X13" s="16"/>
       <c r="Y13" s="14"/>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
+      <c r="AB13" s="16"/>
       <c r="AC13" s="14"/>
-      <c r="AD13" s="16"/>
+      <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
+      <c r="AF13" s="16"/>
       <c r="AG13" s="14"/>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3162,28 +3284,30 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="16"/>
       <c r="Q14" s="14"/>
-      <c r="R14" s="16"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="T14" s="16"/>
       <c r="U14" s="14"/>
-      <c r="V14" s="16"/>
+      <c r="V14" s="14"/>
       <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
+      <c r="X14" s="16"/>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="16"/>
+      <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
+      <c r="AB14" s="16"/>
       <c r="AC14" s="14"/>
-      <c r="AD14" s="16"/>
+      <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
+      <c r="AF14" s="16"/>
       <c r="AG14" s="14"/>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3197,28 +3321,30 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="16"/>
       <c r="Q15" s="14"/>
-      <c r="R15" s="16"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="14"/>
       <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
+      <c r="X15" s="16"/>
       <c r="Y15" s="14"/>
-      <c r="Z15" s="16"/>
+      <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
+      <c r="AB15" s="16"/>
       <c r="AC15" s="14"/>
-      <c r="AD15" s="16"/>
+      <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
+      <c r="AF15" s="16"/>
       <c r="AG15" s="14"/>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3232,28 +3358,30 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="16"/>
       <c r="Q16" s="14"/>
-      <c r="R16" s="16"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="T16" s="16"/>
       <c r="U16" s="14"/>
-      <c r="V16" s="16"/>
+      <c r="V16" s="14"/>
       <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="14"/>
-      <c r="Z16" s="16"/>
+      <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
+      <c r="AB16" s="16"/>
       <c r="AC16" s="14"/>
-      <c r="AD16" s="16"/>
+      <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
+      <c r="AF16" s="16"/>
       <c r="AG16" s="14"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3267,28 +3395,30 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="16"/>
       <c r="Q17" s="14"/>
-      <c r="R17" s="16"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
+      <c r="T17" s="16"/>
       <c r="U17" s="14"/>
-      <c r="V17" s="16"/>
+      <c r="V17" s="14"/>
       <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="14"/>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
+      <c r="AB17" s="16"/>
       <c r="AC17" s="14"/>
-      <c r="AD17" s="16"/>
+      <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
+      <c r="AF17" s="16"/>
       <c r="AG17" s="14"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -3302,28 +3432,30 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="16"/>
       <c r="Q18" s="14"/>
-      <c r="R18" s="16"/>
+      <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
+      <c r="T18" s="16"/>
       <c r="U18" s="14"/>
-      <c r="V18" s="16"/>
+      <c r="V18" s="14"/>
       <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
+      <c r="X18" s="16"/>
       <c r="Y18" s="14"/>
-      <c r="Z18" s="16"/>
+      <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
+      <c r="AB18" s="16"/>
       <c r="AC18" s="14"/>
-      <c r="AD18" s="16"/>
+      <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
+      <c r="AF18" s="16"/>
       <c r="AG18" s="14"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -3337,28 +3469,30 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="16"/>
       <c r="Q19" s="14"/>
-      <c r="R19" s="16"/>
+      <c r="R19" s="14"/>
       <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
+      <c r="T19" s="16"/>
       <c r="U19" s="14"/>
-      <c r="V19" s="16"/>
+      <c r="V19" s="14"/>
       <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="14"/>
-      <c r="Z19" s="16"/>
+      <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
+      <c r="AB19" s="16"/>
       <c r="AC19" s="14"/>
-      <c r="AD19" s="16"/>
+      <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
+      <c r="AF19" s="16"/>
       <c r="AG19" s="14"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -3372,28 +3506,30 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="16"/>
       <c r="Q20" s="14"/>
-      <c r="R20" s="16"/>
+      <c r="R20" s="14"/>
       <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
+      <c r="T20" s="16"/>
       <c r="U20" s="14"/>
-      <c r="V20" s="16"/>
+      <c r="V20" s="14"/>
       <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
+      <c r="X20" s="16"/>
       <c r="Y20" s="14"/>
-      <c r="Z20" s="16"/>
+      <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
+      <c r="AB20" s="16"/>
       <c r="AC20" s="14"/>
-      <c r="AD20" s="16"/>
+      <c r="AD20" s="14"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
+      <c r="AF20" s="16"/>
       <c r="AG20" s="14"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -3407,28 +3543,30 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="16"/>
       <c r="Q21" s="14"/>
-      <c r="R21" s="16"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
+      <c r="T21" s="16"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="16"/>
+      <c r="V21" s="14"/>
       <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="16"/>
+      <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
+      <c r="AB21" s="16"/>
       <c r="AC21" s="14"/>
-      <c r="AD21" s="16"/>
+      <c r="AD21" s="14"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
+      <c r="AF21" s="16"/>
       <c r="AG21" s="14"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -3442,28 +3580,30 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="16"/>
       <c r="Q22" s="14"/>
-      <c r="R22" s="16"/>
+      <c r="R22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
+      <c r="T22" s="16"/>
       <c r="U22" s="14"/>
-      <c r="V22" s="16"/>
+      <c r="V22" s="14"/>
       <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
+      <c r="X22" s="16"/>
       <c r="Y22" s="14"/>
-      <c r="Z22" s="16"/>
+      <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
+      <c r="AB22" s="16"/>
       <c r="AC22" s="14"/>
-      <c r="AD22" s="16"/>
+      <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
+      <c r="AF22" s="16"/>
       <c r="AG22" s="14"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -3477,28 +3617,30 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="16"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="16"/>
+      <c r="R23" s="14"/>
       <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
+      <c r="T23" s="16"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="16"/>
+      <c r="V23" s="14"/>
       <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="16"/>
+      <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
+      <c r="AB23" s="16"/>
       <c r="AC23" s="14"/>
-      <c r="AD23" s="16"/>
+      <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
+      <c r="AF23" s="16"/>
       <c r="AG23" s="14"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3512,28 +3654,30 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="16"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="16"/>
+      <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
+      <c r="T24" s="16"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="16"/>
+      <c r="V24" s="14"/>
       <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="14"/>
-      <c r="Z24" s="16"/>
+      <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
+      <c r="AB24" s="16"/>
       <c r="AC24" s="14"/>
-      <c r="AD24" s="16"/>
+      <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
+      <c r="AF24" s="16"/>
       <c r="AG24" s="14"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH24" s="14"/>
+      <c r="AI24" s="14"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -3547,28 +3691,30 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="16"/>
       <c r="Q25" s="14"/>
-      <c r="R25" s="16"/>
+      <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
+      <c r="T25" s="16"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="16"/>
+      <c r="V25" s="14"/>
       <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
+      <c r="X25" s="16"/>
       <c r="Y25" s="14"/>
-      <c r="Z25" s="16"/>
+      <c r="Z25" s="14"/>
       <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
+      <c r="AB25" s="16"/>
       <c r="AC25" s="14"/>
-      <c r="AD25" s="16"/>
+      <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
+      <c r="AF25" s="16"/>
       <c r="AG25" s="14"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH25" s="14"/>
+      <c r="AI25" s="14"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -3582,28 +3728,30 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="16"/>
       <c r="Q26" s="14"/>
-      <c r="R26" s="16"/>
+      <c r="R26" s="14"/>
       <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
+      <c r="T26" s="16"/>
       <c r="U26" s="14"/>
-      <c r="V26" s="16"/>
+      <c r="V26" s="14"/>
       <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="14"/>
-      <c r="Z26" s="16"/>
+      <c r="Z26" s="14"/>
       <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
+      <c r="AB26" s="16"/>
       <c r="AC26" s="14"/>
-      <c r="AD26" s="16"/>
+      <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="AF26" s="16"/>
       <c r="AG26" s="14"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH26" s="14"/>
+      <c r="AI26" s="14"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3617,28 +3765,30 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="16"/>
       <c r="Q27" s="14"/>
-      <c r="R27" s="16"/>
+      <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
+      <c r="T27" s="16"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="16"/>
+      <c r="V27" s="14"/>
       <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="14"/>
-      <c r="Z27" s="16"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
+      <c r="AB27" s="16"/>
       <c r="AC27" s="14"/>
-      <c r="AD27" s="16"/>
+      <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
+      <c r="AF27" s="16"/>
       <c r="AG27" s="14"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH27" s="14"/>
+      <c r="AI27" s="14"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3652,28 +3802,30 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="16"/>
       <c r="Q28" s="14"/>
-      <c r="R28" s="16"/>
+      <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="T28" s="16"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="16"/>
+      <c r="V28" s="14"/>
       <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="14"/>
-      <c r="Z28" s="16"/>
+      <c r="Z28" s="14"/>
       <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
+      <c r="AB28" s="16"/>
       <c r="AC28" s="14"/>
-      <c r="AD28" s="16"/>
+      <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+      <c r="AF28" s="16"/>
       <c r="AG28" s="14"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH28" s="14"/>
+      <c r="AI28" s="14"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -3687,28 +3839,30 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="16"/>
       <c r="Q29" s="14"/>
-      <c r="R29" s="16"/>
+      <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
+      <c r="T29" s="16"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="16"/>
+      <c r="V29" s="14"/>
       <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="14"/>
-      <c r="Z29" s="16"/>
+      <c r="Z29" s="14"/>
       <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="AB29" s="16"/>
       <c r="AC29" s="14"/>
-      <c r="AD29" s="16"/>
+      <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
+      <c r="AF29" s="16"/>
       <c r="AG29" s="14"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH29" s="14"/>
+      <c r="AI29" s="14"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -3722,28 +3876,30 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="16"/>
       <c r="Q30" s="14"/>
-      <c r="R30" s="16"/>
+      <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
+      <c r="T30" s="16"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="16"/>
+      <c r="V30" s="14"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="14"/>
-      <c r="Z30" s="16"/>
+      <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
+      <c r="AB30" s="16"/>
       <c r="AC30" s="14"/>
-      <c r="AD30" s="16"/>
+      <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
+      <c r="AF30" s="16"/>
       <c r="AG30" s="14"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH30" s="14"/>
+      <c r="AI30" s="14"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -3757,28 +3913,30 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="16"/>
       <c r="Q31" s="14"/>
-      <c r="R31" s="16"/>
+      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
+      <c r="T31" s="16"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="16"/>
+      <c r="V31" s="14"/>
       <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="16"/>
+      <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
+      <c r="AB31" s="16"/>
       <c r="AC31" s="14"/>
-      <c r="AD31" s="16"/>
+      <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
+      <c r="AF31" s="16"/>
       <c r="AG31" s="14"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH31" s="14"/>
+      <c r="AI31" s="14"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -3792,28 +3950,30 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="16"/>
       <c r="Q32" s="14"/>
-      <c r="R32" s="16"/>
+      <c r="R32" s="14"/>
       <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
+      <c r="T32" s="16"/>
       <c r="U32" s="14"/>
-      <c r="V32" s="16"/>
+      <c r="V32" s="14"/>
       <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
+      <c r="X32" s="16"/>
       <c r="Y32" s="14"/>
-      <c r="Z32" s="16"/>
+      <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+      <c r="AB32" s="16"/>
       <c r="AC32" s="14"/>
-      <c r="AD32" s="16"/>
+      <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
+      <c r="AF32" s="16"/>
       <c r="AG32" s="14"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH32" s="14"/>
+      <c r="AI32" s="14"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -3827,28 +3987,30 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="16"/>
       <c r="Q33" s="14"/>
-      <c r="R33" s="16"/>
+      <c r="R33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
+      <c r="T33" s="16"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="16"/>
+      <c r="V33" s="14"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="14"/>
-      <c r="Z33" s="16"/>
+      <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
+      <c r="AB33" s="16"/>
       <c r="AC33" s="14"/>
-      <c r="AD33" s="16"/>
+      <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
+      <c r="AF33" s="16"/>
       <c r="AG33" s="14"/>
-    </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -3862,28 +4024,30 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="16"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="16"/>
+      <c r="R34" s="14"/>
       <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
+      <c r="T34" s="16"/>
       <c r="U34" s="14"/>
-      <c r="V34" s="16"/>
+      <c r="V34" s="14"/>
       <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
+      <c r="X34" s="16"/>
       <c r="Y34" s="14"/>
-      <c r="Z34" s="16"/>
+      <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
+      <c r="AB34" s="16"/>
       <c r="AC34" s="14"/>
-      <c r="AD34" s="16"/>
+      <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
+      <c r="AF34" s="16"/>
       <c r="AG34" s="14"/>
-    </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH34" s="14"/>
+      <c r="AI34" s="14"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -3897,28 +4061,30 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="16"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="16"/>
+      <c r="R35" s="14"/>
       <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
+      <c r="T35" s="16"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="16"/>
+      <c r="V35" s="14"/>
       <c r="W35" s="14"/>
-      <c r="X35" s="14"/>
+      <c r="X35" s="16"/>
       <c r="Y35" s="14"/>
-      <c r="Z35" s="16"/>
+      <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
+      <c r="AB35" s="16"/>
       <c r="AC35" s="14"/>
-      <c r="AD35" s="16"/>
+      <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
+      <c r="AF35" s="16"/>
       <c r="AG35" s="14"/>
-    </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH35" s="14"/>
+      <c r="AI35" s="14"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -3932,28 +4098,30 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="16"/>
       <c r="Q36" s="14"/>
-      <c r="R36" s="16"/>
+      <c r="R36" s="14"/>
       <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
+      <c r="T36" s="16"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="16"/>
+      <c r="V36" s="14"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="14"/>
-      <c r="Z36" s="16"/>
+      <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
+      <c r="AB36" s="16"/>
       <c r="AC36" s="14"/>
-      <c r="AD36" s="16"/>
+      <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
+      <c r="AF36" s="16"/>
       <c r="AG36" s="14"/>
-    </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -3967,28 +4135,30 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="16"/>
       <c r="Q37" s="14"/>
-      <c r="R37" s="16"/>
+      <c r="R37" s="14"/>
       <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
+      <c r="T37" s="16"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="16"/>
+      <c r="V37" s="14"/>
       <c r="W37" s="14"/>
-      <c r="X37" s="14"/>
+      <c r="X37" s="16"/>
       <c r="Y37" s="14"/>
-      <c r="Z37" s="16"/>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
+      <c r="AB37" s="16"/>
       <c r="AC37" s="14"/>
-      <c r="AD37" s="16"/>
+      <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
+      <c r="AF37" s="16"/>
       <c r="AG37" s="14"/>
-    </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -4002,28 +4172,30 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="16"/>
       <c r="Q38" s="14"/>
-      <c r="R38" s="16"/>
+      <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
+      <c r="T38" s="16"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="16"/>
+      <c r="V38" s="14"/>
       <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
+      <c r="X38" s="16"/>
       <c r="Y38" s="14"/>
-      <c r="Z38" s="16"/>
+      <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
+      <c r="AB38" s="16"/>
       <c r="AC38" s="14"/>
-      <c r="AD38" s="16"/>
+      <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
+      <c r="AF38" s="16"/>
       <c r="AG38" s="14"/>
-    </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH38" s="14"/>
+      <c r="AI38" s="14"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -4037,28 +4209,30 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="16"/>
       <c r="Q39" s="14"/>
-      <c r="R39" s="16"/>
+      <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
+      <c r="T39" s="16"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="16"/>
+      <c r="V39" s="14"/>
       <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
+      <c r="X39" s="16"/>
       <c r="Y39" s="14"/>
-      <c r="Z39" s="16"/>
+      <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
+      <c r="AB39" s="16"/>
       <c r="AC39" s="14"/>
-      <c r="AD39" s="16"/>
+      <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
+      <c r="AF39" s="16"/>
       <c r="AG39" s="14"/>
-    </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH39" s="14"/>
+      <c r="AI39" s="14"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -4072,28 +4246,30 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="16"/>
       <c r="Q40" s="14"/>
-      <c r="R40" s="16"/>
+      <c r="R40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
+      <c r="T40" s="16"/>
       <c r="U40" s="14"/>
-      <c r="V40" s="16"/>
+      <c r="V40" s="14"/>
       <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
+      <c r="X40" s="16"/>
       <c r="Y40" s="14"/>
-      <c r="Z40" s="16"/>
+      <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
+      <c r="AB40" s="16"/>
       <c r="AC40" s="14"/>
-      <c r="AD40" s="16"/>
+      <c r="AD40" s="14"/>
       <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
+      <c r="AF40" s="16"/>
       <c r="AG40" s="14"/>
-    </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -4107,28 +4283,30 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="16"/>
       <c r="Q41" s="14"/>
-      <c r="R41" s="16"/>
+      <c r="R41" s="14"/>
       <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
+      <c r="T41" s="16"/>
       <c r="U41" s="14"/>
-      <c r="V41" s="16"/>
+      <c r="V41" s="14"/>
       <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
+      <c r="X41" s="16"/>
       <c r="Y41" s="14"/>
-      <c r="Z41" s="16"/>
+      <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
+      <c r="AB41" s="16"/>
       <c r="AC41" s="14"/>
-      <c r="AD41" s="16"/>
+      <c r="AD41" s="14"/>
       <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
+      <c r="AF41" s="16"/>
       <c r="AG41" s="14"/>
-    </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -4142,28 +4320,30 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="16"/>
       <c r="Q42" s="14"/>
-      <c r="R42" s="16"/>
+      <c r="R42" s="14"/>
       <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
+      <c r="T42" s="16"/>
       <c r="U42" s="14"/>
-      <c r="V42" s="16"/>
+      <c r="V42" s="14"/>
       <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
+      <c r="X42" s="16"/>
       <c r="Y42" s="14"/>
-      <c r="Z42" s="16"/>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
+      <c r="AB42" s="16"/>
       <c r="AC42" s="14"/>
-      <c r="AD42" s="16"/>
+      <c r="AD42" s="14"/>
       <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
+      <c r="AF42" s="16"/>
       <c r="AG42" s="14"/>
-    </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -4177,28 +4357,30 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="16"/>
       <c r="Q43" s="14"/>
-      <c r="R43" s="16"/>
+      <c r="R43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
+      <c r="T43" s="16"/>
       <c r="U43" s="14"/>
-      <c r="V43" s="16"/>
+      <c r="V43" s="14"/>
       <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
+      <c r="X43" s="16"/>
       <c r="Y43" s="14"/>
-      <c r="Z43" s="16"/>
+      <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
+      <c r="AB43" s="16"/>
       <c r="AC43" s="14"/>
-      <c r="AD43" s="16"/>
+      <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
+      <c r="AF43" s="16"/>
       <c r="AG43" s="14"/>
-    </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -4212,28 +4394,30 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="16"/>
       <c r="Q44" s="14"/>
-      <c r="R44" s="16"/>
+      <c r="R44" s="14"/>
       <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
+      <c r="T44" s="16"/>
       <c r="U44" s="14"/>
-      <c r="V44" s="16"/>
+      <c r="V44" s="14"/>
       <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
+      <c r="X44" s="16"/>
       <c r="Y44" s="14"/>
-      <c r="Z44" s="16"/>
+      <c r="Z44" s="14"/>
       <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
+      <c r="AB44" s="16"/>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="16"/>
+      <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
+      <c r="AF44" s="16"/>
       <c r="AG44" s="14"/>
-    </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -4247,66 +4431,70 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="16"/>
       <c r="Q45" s="14"/>
-      <c r="R45" s="16"/>
+      <c r="R45" s="14"/>
       <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
+      <c r="T45" s="16"/>
       <c r="U45" s="14"/>
-      <c r="V45" s="16"/>
+      <c r="V45" s="14"/>
       <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
+      <c r="X45" s="16"/>
       <c r="Y45" s="14"/>
-      <c r="Z45" s="16"/>
+      <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
+      <c r="AB45" s="16"/>
       <c r="AC45" s="14"/>
-      <c r="AD45" s="16"/>
+      <c r="AD45" s="14"/>
       <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
+      <c r="AF45" s="16"/>
       <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
+  <mergeCells count="22">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AJ1:AJ2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA3:AA45 O3:O45 S3:S45 AE3:AE45 W3:W45" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>INDIRECT(N3&amp;"技能")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC45 Q3:Q45 U3:U45 AG3:AG45 Y3:Y45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H45" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N45 R3:R45 V3:V45 Z3:Z45 AD3:AD45" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>INDIRECT(N$2)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P45 T3:T45 X3:X45 AB3:AB45 AF3:AF45" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>INDIRECT(P$2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB45 T3:T45 X3:X45 AF3:AF45 P3:P45" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>INDIRECT(N3&amp;"技能")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD45 V3:V45 Z3:Z45 AH3:AH45 R3:R45" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q45 U3:U45 Y3:Y45 AC3:AC45 AG3:AG45" xr:uid="{00000000-0002-0000-0000-000004000000}">
-      <formula1>INDIRECT(N3&amp;"技能")</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S45 W3:W45 AA3:AA45 AE3:AE45 AI3:AI45" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D45" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT(C3&amp;"任务")</formula1>

--- a/public/attachment/sys/templates/template_task.xlsx
+++ b/public/attachment/sys/templates/template_task.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\workspace\jz\master\jianzhi\public\attachment\sys\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC03EF-7B4E-4DD5-BC90-F5BAD77D2B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="任务导入表" sheetId="7" r:id="rId1"/>
     <sheet name="任务分类" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="技能标签" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="城市" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="发布企业" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="发布企业" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="company" localSheetId="4">发布企业!$A$1:$A$4</definedName>
     <definedName name="安徽省">城市!$L$3:$L$25</definedName>
     <definedName name="澳门特别行政区">城市!$AH$3:$AH$25</definedName>
     <definedName name="北京">城市!$A$3:$A$25</definedName>
@@ -83,8 +78,20 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="company" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="D:\company.txt" tab="0">
+      <textFields>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="589">
   <si>
     <t>任务名称</t>
   </si>
@@ -1958,17 +1965,26 @@
     <t>任务图片三</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>测试企业</t>
+  </si>
+  <si>
+    <t>伍工十八有限公司</t>
+  </si>
+  <si>
+    <t>呀呀呀</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2120,7 +2136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2192,17 +2208,20 @@
     <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -2216,12 +2235,15 @@
     <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2256,7 +2278,7 @@
         <xdr:cNvPr id="2" name="图片 1" descr="刘亦菲.jpg.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2317,7 @@
         <xdr:cNvPr id="5" name="图片 4" descr="刘亦菲.jpg.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAABED28-AC21-4866-990C-2F65631D2C1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CAABED28-AC21-4866-990C-2F65631D2C1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2356,7 @@
         <xdr:cNvPr id="6" name="图片 5" descr="刘亦菲.jpg.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A895243-C2BB-4A22-B4F4-45A2EFE70AF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A895243-C2BB-4A22-B4F4-45A2EFE70AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,6 +2383,10 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="company" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2620,14 +2646,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="23.33203125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1" collapsed="1"/>
@@ -2647,104 +2673,104 @@
     <col min="40" max="40" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:40">
+      <c r="A1" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="25" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="25" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="25" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="25" t="s">
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="30"/>
+      <c r="AK1" s="30"/>
+      <c r="AL1" s="30"/>
+      <c r="AM1" s="30"/>
+      <c r="AN1" s="30"/>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
       <c r="P2" s="15" t="s">
         <v>4</v>
       </c>
@@ -2805,9 +2831,9 @@
       <c r="AI2" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="AJ2" s="29"/>
-    </row>
-    <row r="3" spans="1:40" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ2" s="30"/>
+    </row>
+    <row r="3" spans="1:40" ht="42.6" customHeight="1">
       <c r="A3" s="19" t="s">
         <v>560</v>
       </c>
@@ -2900,7 +2926,7 @@
       <c r="AH3" s="14"/>
       <c r="AI3" s="14"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="2"/>
@@ -2937,7 +2963,7 @@
       <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="2"/>
@@ -2974,7 +3000,7 @@
       <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="2"/>
@@ -3011,7 +3037,7 @@
       <c r="AH6" s="14"/>
       <c r="AI6" s="14"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="2"/>
@@ -3048,7 +3074,7 @@
       <c r="AH7" s="14"/>
       <c r="AI7" s="14"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="2"/>
@@ -3085,7 +3111,7 @@
       <c r="AH8" s="14"/>
       <c r="AI8" s="14"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -3122,7 +3148,7 @@
       <c r="AH9" s="14"/>
       <c r="AI9" s="14"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -3159,7 +3185,7 @@
       <c r="AH10" s="14"/>
       <c r="AI10" s="14"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -3196,7 +3222,7 @@
       <c r="AH11" s="14"/>
       <c r="AI11" s="14"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3233,7 +3259,7 @@
       <c r="AH12" s="14"/>
       <c r="AI12" s="14"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3270,7 +3296,7 @@
       <c r="AH13" s="14"/>
       <c r="AI13" s="14"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -3307,7 +3333,7 @@
       <c r="AH14" s="14"/>
       <c r="AI14" s="14"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -3344,7 +3370,7 @@
       <c r="AH15" s="14"/>
       <c r="AI15" s="14"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -3381,7 +3407,7 @@
       <c r="AH16" s="14"/>
       <c r="AI16" s="14"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -3418,7 +3444,7 @@
       <c r="AH17" s="14"/>
       <c r="AI17" s="14"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -3455,7 +3481,7 @@
       <c r="AH18" s="14"/>
       <c r="AI18" s="14"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -3492,7 +3518,7 @@
       <c r="AH19" s="14"/>
       <c r="AI19" s="14"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -3529,7 +3555,7 @@
       <c r="AH20" s="14"/>
       <c r="AI20" s="14"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -3566,7 +3592,7 @@
       <c r="AH21" s="14"/>
       <c r="AI21" s="14"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -3603,7 +3629,7 @@
       <c r="AH22" s="14"/>
       <c r="AI22" s="14"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -3640,7 +3666,7 @@
       <c r="AH23" s="14"/>
       <c r="AI23" s="14"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -3677,7 +3703,7 @@
       <c r="AH24" s="14"/>
       <c r="AI24" s="14"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -3714,7 +3740,7 @@
       <c r="AH25" s="14"/>
       <c r="AI25" s="14"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -3751,7 +3777,7 @@
       <c r="AH26" s="14"/>
       <c r="AI26" s="14"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -3788,7 +3814,7 @@
       <c r="AH27" s="14"/>
       <c r="AI27" s="14"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -3825,7 +3851,7 @@
       <c r="AH28" s="14"/>
       <c r="AI28" s="14"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -3862,7 +3888,7 @@
       <c r="AH29" s="14"/>
       <c r="AI29" s="14"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -3899,7 +3925,7 @@
       <c r="AH30" s="14"/>
       <c r="AI30" s="14"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -3936,7 +3962,7 @@
       <c r="AH31" s="14"/>
       <c r="AI31" s="14"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2"/>
@@ -3973,7 +3999,7 @@
       <c r="AH32" s="14"/>
       <c r="AI32" s="14"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
@@ -4010,7 +4036,7 @@
       <c r="AH33" s="14"/>
       <c r="AI33" s="14"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -4047,7 +4073,7 @@
       <c r="AH34" s="14"/>
       <c r="AI34" s="14"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="2"/>
@@ -4084,7 +4110,7 @@
       <c r="AH35" s="14"/>
       <c r="AI35" s="14"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
@@ -4121,7 +4147,7 @@
       <c r="AH36" s="14"/>
       <c r="AI36" s="14"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -4158,7 +4184,7 @@
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="2"/>
@@ -4195,7 +4221,7 @@
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="2"/>
@@ -4232,7 +4258,7 @@
       <c r="AH39" s="14"/>
       <c r="AI39" s="14"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="2"/>
@@ -4269,7 +4295,7 @@
       <c r="AH40" s="14"/>
       <c r="AI40" s="14"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
@@ -4306,7 +4332,7 @@
       <c r="AH41" s="14"/>
       <c r="AI41" s="14"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="2"/>
@@ -4343,7 +4369,7 @@
       <c r="AH42" s="14"/>
       <c r="AI42" s="14"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="2"/>
@@ -4380,7 +4406,7 @@
       <c r="AH43" s="14"/>
       <c r="AI43" s="14"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="2"/>
@@ -4417,7 +4443,7 @@
       <c r="AH44" s="14"/>
       <c r="AI44" s="14"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="2"/>
@@ -4456,12 +4482,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="AB1:AE1"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="A1:A2"/>
@@ -4478,47 +4498,56 @@
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC45 Q3:Q45 U3:U45 AG3:AG45 Y3:Y45" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC45 Q3:Q45 U3:U45 AG3:AG45 Y3:Y45">
       <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H45" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H45">
       <formula1>INDIRECT($G3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P45 T3:T45 X3:X45 AB3:AB45 AF3:AF45" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P45 T3:T45 X3:X45 AB3:AB45 AF3:AF45">
       <formula1>INDIRECT(P$2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD45 V3:V45 Z3:Z45 AH3:AH45 R3:R45" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD45 V3:V45 Z3:Z45 AH3:AH45 R3:R45">
       <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S45 W3:W45 AA3:AA45 AE3:AE45 AI3:AI45" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S45 W3:W45 AA3:AA45 AE3:AE45 AI3:AI45">
       <formula1>INDIRECT(P3&amp;"技能")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D45" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D45">
       <formula1>INDIRECT(C3&amp;"任务")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G45" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G45">
       <formula1>INDIRECT($G$1)</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F45" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:F45">
       <formula1>1</formula1>
       <formula2>72686</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C45" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C45">
       <formula1>INDIRECT($C$1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3">
+      <formula1>发布企业!$A:$A</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
-            <xm:f>发布企业!$A:$A</xm:f>
+            <xm:f>发布企业!$B:$B</xm:f>
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -4529,14 +4558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" width="14.6640625" style="4" collapsed="1"/>
     <col min="5" max="5" width="18.44140625" style="4" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4544,7 +4573,7 @@
     <col min="7" max="16384" width="14.6640625" style="4" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6">
       <c r="A1" s="18" t="s">
         <v>556</v>
       </c>
@@ -4567,7 +4596,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="5" t="s">
         <v>502</v>
       </c>
@@ -4590,7 +4619,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="5" t="s">
         <v>503</v>
       </c>
@@ -4611,7 +4640,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="5" t="s">
         <v>566</v>
       </c>
@@ -4632,7 +4661,7 @@
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="5" t="s">
         <v>567</v>
       </c>
@@ -4651,7 +4680,7 @@
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>570</v>
@@ -4664,7 +4693,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>571</v>
@@ -4677,7 +4706,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>572</v>
@@ -4688,7 +4717,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -4701,14 +4730,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12.88671875" style="8" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="18.109375" style="8" customWidth="1" collapsed="1"/>
@@ -4719,7 +4748,7 @@
     <col min="7" max="16384" width="8.88671875" style="8" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
@@ -4739,7 +4768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>515</v>
       </c>
@@ -4759,7 +4788,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>518</v>
       </c>
@@ -4779,7 +4808,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>520</v>
       </c>
@@ -4797,7 +4826,7 @@
       </c>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>522</v>
       </c>
@@ -4815,7 +4844,7 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>524</v>
       </c>
@@ -4833,7 +4862,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>525</v>
       </c>
@@ -4849,7 +4878,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>526</v>
       </c>
@@ -4861,7 +4890,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -4873,14 +4902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8" style="10" bestFit="1" customWidth="1" collapsed="1"/>
@@ -4917,7 +4946,7 @@
     <col min="35" max="16384" width="10.88671875" style="10" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="10" t="s">
         <v>488</v>
       </c>
@@ -4925,7 +4954,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" s="12" t="s">
         <v>429</v>
       </c>
@@ -5029,7 +5058,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34">
       <c r="A3" s="11" t="s">
         <v>489</v>
       </c>
@@ -5133,7 +5162,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11" t="s">
@@ -5229,7 +5258,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11" t="s">
@@ -5325,7 +5354,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11" t="s">
@@ -5417,7 +5446,7 @@
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
@@ -5509,7 +5538,7 @@
       <c r="AG7" s="11"/>
       <c r="AH7" s="11"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
@@ -5599,7 +5628,7 @@
       <c r="AG8" s="11"/>
       <c r="AH8" s="11"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11" t="s">
@@ -5689,7 +5718,7 @@
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11" t="s">
@@ -5777,7 +5806,7 @@
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11" t="s">
@@ -5863,7 +5892,7 @@
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11" t="s">
@@ -5943,7 +5972,7 @@
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11" t="s">
@@ -6021,7 +6050,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -6093,7 +6122,7 @@
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -6161,7 +6190,7 @@
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -6225,7 +6254,7 @@
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -6281,7 +6310,7 @@
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -6337,7 +6366,7 @@
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -6389,7 +6418,7 @@
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -6437,7 +6466,7 @@
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -6483,7 +6512,7 @@
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -6527,7 +6556,7 @@
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -6571,7 +6600,7 @@
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -6611,7 +6640,7 @@
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -6656,202 +6685,215 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="34" t="s">
+        <v>586</v>
+      </c>
+      <c r="B1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="B3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="34" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>477</v>
       </c>
     </row>
